--- a/assets/examples/Tarefas.xlsx
+++ b/assets/examples/Tarefas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="Raee9f6beb9f0428d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="Rf20627219f1a448b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1048,7 +1048,7 @@
         <x:v/>
       </x:c>
       <x:c t="str">
-        <x:v>102,6h</x:v>
+        <x:v>100h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -1057,7 +1057,7 @@
         <x:v>28/07/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>91,4h</x:v>
+        <x:v>95,7h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -1176,7 +1176,7 @@
         <x:v/>
       </x:c>
       <x:c t="str">
-        <x:v>102,6h</x:v>
+        <x:v>100h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -1185,7 +1185,7 @@
         <x:v>28/07/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>91,4h</x:v>
+        <x:v>95,7h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -1432,16 +1432,16 @@
         <x:v>Atualizada pelo Gerente</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0,6h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>98%</x:v>
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>100%</x:v>
       </x:c>
       <x:c t="str">
         <x:v>29/07/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>31,4h</x:v>
+        <x:v>33,2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Tribo E&amp;S - Estudo/projetos internos &gt; Devero</x:v>
@@ -1450,43 +1450,43 @@
         <x:v>0026_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>1,8h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,8h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -1557,7 +1557,7 @@
         <x:v>Reunião Tribo ou Retro tribo/squads</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Atualizada pelo Gerente</x:v>
+        <x:v>Aguardando Aprovação</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -1569,7 +1569,7 @@
         <x:v>01/08/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>34h</x:v>
+        <x:v>35h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Tribo E&amp;S - Estudo/projetos internos &gt; Devero</x:v>
@@ -1578,100 +1578,100 @@
         <x:v>0026_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -1688,16 +1688,16 @@
         <x:v>Atualizada pelo Gerente</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>18h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>44%</x:v>
+        <x:v>16h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>50%</x:v>
       </x:c>
       <x:c t="str">
         <x:v>02/08/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>14h</x:v>
+        <x:v>16h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Tribo E&amp;S - Estudo/projetos internos &gt; Devero</x:v>
@@ -1706,40 +1706,40 @@
         <x:v>0026_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>2h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2081,7 +2081,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.808,5h</x:v>
+        <x:v>1.863,3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -2209,7 +2209,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.808,5h</x:v>
+        <x:v>1.863,3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -2325,7 +2325,7 @@
         <x:v> DSM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Atualizada pelo Gerente</x:v>
+        <x:v>Aguardando Aprovação</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2337,7 +2337,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>128,5h</x:v>
+        <x:v>134,1h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2346,100 +2346,100 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>6,6h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>1h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,9h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2453,7 +2453,7 @@
         <x:v> Melhorias ArcelorMittal</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Atualizada pelo Gerente</x:v>
+        <x:v>Aguardando Aprovação</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2465,7 +2465,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>814,3h</x:v>
+        <x:v>844,4h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2474,100 +2474,100 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>33,7h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>3,6h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>3,6h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>2h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4,4h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6,2h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2581,7 +2581,7 @@
         <x:v> Avaliação de PR</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Atualizada pelo Gerente</x:v>
+        <x:v>Aguardando Aprovação</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2593,7 +2593,7 @@
         <x:v>14/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>99,1h</x:v>
+        <x:v>105,1h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2602,100 +2602,100 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>6,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>0,5h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
         <x:v>0,5h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2837,7 +2837,7 @@
         <x:v> Melhorias Viridis</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Atualizada pelo Gerente</x:v>
+        <x:v>Aguardando Aprovação</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2849,7 +2849,7 @@
         <x:v>04/02/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>461,8h</x:v>
+        <x:v>492,6h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2858,100 +2858,100 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>33,8h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>3h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>3h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6,8h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4,1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8,4h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/assets/examples/Tarefas.xlsx
+++ b/assets/examples/Tarefas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="Rf20627219f1a448b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="Rd94c7fc448cc4ba7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1057,7 +1057,7 @@
         <x:v>28/07/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>95,7h</x:v>
+        <x:v>96,2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -1185,7 +1185,7 @@
         <x:v>28/07/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>95,7h</x:v>
+        <x:v>96,2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -1557,7 +1557,7 @@
         <x:v>Reunião Tribo ou Retro tribo/squads</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Aguardando Aprovação</x:v>
+        <x:v>Atualizada pelo Gerente</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -1626,52 +1626,52 @@
         <x:v>0,5h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
       </x:c>
     </x:row>
     <x:row>
@@ -2081,7 +2081,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.863,3h</x:v>
+        <x:v>1.885,2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -2209,7 +2209,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.863,3h</x:v>
+        <x:v>1.885,2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -2337,7 +2337,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>134,1h</x:v>
+        <x:v>134,3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2346,7 +2346,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>6,6h</x:v>
+        <x:v>6,8h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2397,7 +2397,7 @@
         <x:v>0,5h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>0,2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2453,7 +2453,7 @@
         <x:v> Melhorias ArcelorMittal</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Aguardando Aprovação</x:v>
+        <x:v>Não Enviado</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2465,7 +2465,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>844,4h</x:v>
+        <x:v>851,5h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>33,7h</x:v>
+        <x:v>40,8h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2486,27 +2486,27 @@
         <x:v>2h</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>2,1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>2h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
         <x:v>2h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>2h</x:v>
-      </x:c>
-      <x:c t="str">
         <x:v>4,4h</x:v>
       </x:c>
       <x:c t="str">
@@ -2525,10 +2525,10 @@
         <x:v>7h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>4h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2593,7 +2593,7 @@
         <x:v>14/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>105,1h</x:v>
+        <x:v>105,6h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2602,7 +2602,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>6,5h</x:v>
+        <x:v>7h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2653,7 +2653,7 @@
         <x:v>1h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>0,5h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2837,7 +2837,7 @@
         <x:v> Melhorias Viridis</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Aguardando Aprovação</x:v>
+        <x:v>Não Enviado</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2849,7 +2849,7 @@
         <x:v>04/02/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>492,6h</x:v>
+        <x:v>506,4h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2858,7 +2858,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>33,8h</x:v>
+        <x:v>47,6h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2882,15 +2882,15 @@
         <x:v>0h</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>4h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8,5h</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4,1h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>8,4h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
         <x:v>0h</x:v>
       </x:c>
       <x:c t="str">
@@ -2909,10 +2909,10 @@
         <x:v>1,5h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>4,7h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>

--- a/assets/examples/Tarefas.xlsx
+++ b/assets/examples/Tarefas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="Rd94c7fc448cc4ba7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarefas" sheetId="1" r:id="Rd9d5fd96c0a440db"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1429,7 +1429,7 @@
         <x:v>Connection/All hands</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Atualizada pelo Gerente</x:v>
+        <x:v>Não Enviado</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -1441,7 +1441,7 @@
         <x:v>29/07/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>33,2h</x:v>
+        <x:v>34,7h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Tribo E&amp;S - Estudo/projetos internos &gt; Devero</x:v>
@@ -1450,7 +1450,7 @@
         <x:v>0026_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1,8h</x:v>
+        <x:v>3,3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -1489,61 +1489,61 @@
         <x:v>1h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -2081,7 +2081,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.885,2h</x:v>
+        <x:v>1.902,6h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -2209,7 +2209,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.885,2h</x:v>
+        <x:v>1.902,6h</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -2325,7 +2325,7 @@
         <x:v> DSM</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Aguardando Aprovação</x:v>
+        <x:v>Não Enviado</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2337,7 +2337,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>134,3h</x:v>
+        <x:v>135,3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2346,7 +2346,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>6,8h</x:v>
+        <x:v>7,8h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2403,16 +2403,16 @@
         <x:v>0h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2465,7 +2465,7 @@
         <x:v>03/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>851,5h</x:v>
+        <x:v>857,5h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>40,8h</x:v>
+        <x:v>46,8h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2531,16 +2531,16 @@
         <x:v>3h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>3h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2581,7 +2581,7 @@
         <x:v> Avaliação de PR</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Aguardando Aprovação</x:v>
+        <x:v>Não Enviado</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2593,7 +2593,7 @@
         <x:v>14/01/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>105,6h</x:v>
+        <x:v>106,6h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2602,7 +2602,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>7h</x:v>
+        <x:v>8h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2659,16 +2659,16 @@
         <x:v>0h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>0,5h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,5h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2849,7 +2849,7 @@
         <x:v>04/02/2022</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>506,4h</x:v>
+        <x:v>512,6h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>DeVero &gt; Atividades Gerais</x:v>
@@ -2858,7 +2858,7 @@
         <x:v>8121_001</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>47,6h</x:v>
+        <x:v>53,8h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
@@ -2915,16 +2915,16 @@
         <x:v>5h</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0h</x:v>
+        <x:v>3,1h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0h</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3,1h</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0h</x:v>
